--- a/results_cnn_subnetwork_evaluation/PCC_subnetwork_separate_node_index/summary_pcc_separate_node.xlsx
+++ b/results_cnn_subnetwork_evaluation/PCC_subnetwork_separate_node_index/summary_pcc_separate_node.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_residual\results_cnn_subnetwork_evaluation\PCC_subnetwork_separate_node_index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27249DB5-6D9E-41BA-AD0D-B8148FEBA533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEDC333-7D4B-48BF-A120-B7B3A64FDFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="633" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -592,10 +592,28 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -616,32 +634,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -652,24 +661,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -678,6 +669,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -691,16 +694,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -983,7 +983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1454EC66-14F0-4D21-A6A2-A1AADF2568A4}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -997,7 +997,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>20</v>
       </c>
@@ -1050,12 +1050,13 @@
       <c r="R1" s="52">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="S1" s="5"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="96"/>
+      <c r="B2" s="95"/>
       <c r="C2" s="6">
         <v>93.101364775358491</v>
       </c>
@@ -1082,10 +1083,10 @@
         <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:H2)&amp;","</f>
         <v xml:space="preserve">    93.1013647753585, 91.3266637254648, 89.7225610371485, 83.857204647099, 76.2429490451186, 60.4027774173364,</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="96"/>
+      <c r="L2" s="95"/>
       <c r="M2" s="5">
         <v>3.4649270444699574</v>
       </c>
@@ -1104,12 +1105,16 @@
       <c r="R2" s="9">
         <v>9.9900413492801565</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="S2" s="5" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,M2:R2)&amp;","</f>
+        <v xml:space="preserve">    3.46492704446996, 4.46117976216153, 4.77120652488214, 5.39656891030104, 7.93237572607419, 9.99004134928016,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="81"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="10">
         <v>88.992361525618733</v>
       </c>
@@ -1136,10 +1141,10 @@
         <f t="shared" ref="J3:J6" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C3:H3)&amp;","</f>
         <v xml:space="preserve">    88.9923615256187, 88.6707093775321, 87.4696897608688, 83.7447699951268, 80.5426258012612, 69.1722794603183,</v>
       </c>
-      <c r="K3" s="80" t="s">
+      <c r="K3" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="81"/>
+      <c r="L3" s="96"/>
       <c r="M3" s="10">
         <v>6.9511270881584188</v>
       </c>
@@ -1158,12 +1163,16 @@
       <c r="R3" s="12">
         <v>10.72019303428387</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="S3" s="5" t="str">
+        <f t="shared" ref="S3:S6" si="1">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,M3:R3)&amp;","</f>
+        <v xml:space="preserve">    6.95112708815842, 7.2986078225489, 7.51913424026691, 9.22583857069875, 11.882485581755, 10.7201930342839,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="10">
         <v>86.516927770424758</v>
       </c>
@@ -1190,10 +1199,10 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    86.5169277704248, 86.6656804989662, 86.8535396788323, 86.3719784196519, 83.995380582877, 73.7815667378899,</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="81"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="10">
         <v>5.1834070986462946</v>
       </c>
@@ -1212,8 +1221,12 @@
       <c r="R4" s="12">
         <v>7.8068089369480687</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S4" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    5.18340709864629, 5.43657368936622, 5.66126031221776, 6.6117141447355, 7.12701128682714, 7.80680893694807,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1283,12 @@
       <c r="R5" s="15">
         <v>9.346952550820161</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    3.81589906645475, 4.50406632428225, 4.14938833450653, 5.0212741784738, 5.44740052521954, 9.34695255082016,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
         <v>24</v>
       </c>
@@ -1328,8 +1345,12 @@
       <c r="R6" s="15">
         <v>7.6275422250546434</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    3.29790769195924, 4.07670529625175, 4.66631564617289, 4.87272409107873, 5.96728189643933, 7.62754222505464,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="7"/>
       <c r="C7" s="16"/>
@@ -1348,33 +1369,35 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="17"/>
-    </row>
-    <row r="8" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="90"/>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="82" t="s">
+      <c r="K8" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="84"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="85" t="s">
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="91" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="59" t="s">
@@ -1403,10 +1426,10 @@
         <v>79.602093227450069</v>
       </c>
       <c r="J9" s="5" t="str">
-        <f t="shared" ref="J9:J12" si="1">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C9:H9)&amp;","</f>
+        <f t="shared" ref="J9:J12" si="2">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C9:H9)&amp;","</f>
         <v xml:space="preserve">    93.1878764810538, 92.4199430790924, 91.0303059138343, 87.6380620362921, 81.3864969996857, 61.6489012304028,</v>
       </c>
-      <c r="K9" s="85" t="s">
+      <c r="K9" s="91" t="s">
         <v>0</v>
       </c>
       <c r="L9" s="59" t="s">
@@ -1430,9 +1453,13 @@
       <c r="R9" s="17">
         <v>10.604590630198228</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="86"/>
+      <c r="S9" s="5" t="str">
+        <f t="shared" ref="S9:S12" si="3">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,M9:R9)&amp;","</f>
+        <v xml:space="preserve">    3.66296410081041, 4.08548822925564, 4.11203881150984, 5.45981085849073, 7.56050607389819, 10.6045906301982,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="92"/>
       <c r="B10" s="61" t="s">
         <v>5</v>
       </c>
@@ -1459,10 +1486,10 @@
         <v>80.925819571680265</v>
       </c>
       <c r="J10" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">    93.593909405214, 93.2842844661286, 92.6697145592378, 89.612317868955, 84.3251268032884, 63.6092728599152,</v>
       </c>
-      <c r="K10" s="86"/>
+      <c r="K10" s="92"/>
       <c r="L10" s="61" t="s">
         <v>5</v>
       </c>
@@ -1484,9 +1511,13 @@
       <c r="R10" s="9">
         <v>11.499157764357163</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="86"/>
+      <c r="S10" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    3.50740532426741, 3.93995386587665, 4.15999386075158, 5.11681432944707, 6.56239462302396, 11.4991577643572,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="92"/>
       <c r="B11" s="61" t="s">
         <v>6</v>
       </c>
@@ -1513,10 +1544,10 @@
         <v>81.111873877225008</v>
       </c>
       <c r="J11" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">    93.2714037318662, 93.1593324048363, 92.6079349013977, 91.3957675527758, 86.1000989051232, 60.1390986657901,</v>
       </c>
-      <c r="K11" s="86"/>
+      <c r="K11" s="92"/>
       <c r="L11" s="61" t="s">
         <v>6</v>
       </c>
@@ -1538,9 +1569,13 @@
       <c r="R11" s="9">
         <v>9.725428258600461</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
+      <c r="S11" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    3.31188914533316, 3.56223187291975, 3.72496560029146, 4.59247816307652, 5.92037387359228, 9.72542825860046,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="93"/>
       <c r="B12" s="63" t="s">
         <v>7</v>
       </c>
@@ -1567,10 +1602,10 @@
         <v>80.668874009867466</v>
       </c>
       <c r="J12" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">    93.6145872080785, 92.6837285212963, 92.0673016202562, 89.309630706148, 84.609852449704, 64.470915261666,</v>
       </c>
-      <c r="K12" s="87"/>
+      <c r="K12" s="93"/>
       <c r="L12" s="63" t="s">
         <v>7</v>
       </c>
@@ -1592,9 +1627,13 @@
       <c r="R12" s="23">
         <v>11.985648803016417</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    3.56791909401537, 5.03806550178862, 4.19126003838484, 5.04465546775555, 6.83081552533806, 11.9856488030164,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="69" t="s">
         <v>26</v>
       </c>
@@ -1645,12 +1684,13 @@
       <c r="R14" s="65">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="S14" s="25"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="26">
         <v>92.567111769713335</v>
       </c>
@@ -1670,11 +1710,14 @@
         <v>58.994367187597383</v>
       </c>
       <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="88" t="s">
+      <c r="J15" s="25" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C15:H15)&amp;","</f>
+        <v xml:space="preserve">    92.5671117697133, 90.8358586083436, 89.2175053395332, 83.2372459642881, 75.380430844191, 58.9943671875974,</v>
+      </c>
+      <c r="K15" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="89"/>
+      <c r="L15" s="87"/>
       <c r="M15" s="25">
         <v>3.88093621561358</v>
       </c>
@@ -1693,8 +1736,12 @@
       <c r="R15" s="28">
         <v>10.49020927094638</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S15" s="25" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,M15:R15)&amp;","</f>
+        <v xml:space="preserve">    3.88093621561358, 4.81647468296774, 5.22506083866165, 5.66757210867241, 8.32632834829361, 10.4902092709464,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78" t="s">
         <v>16</v>
       </c>
@@ -1718,7 +1765,10 @@
         <v>65.108004769341349</v>
       </c>
       <c r="I16" s="32"/>
-      <c r="J16" s="25"/>
+      <c r="J16" s="25" t="str">
+        <f t="shared" ref="J16:J19" si="4">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C16:H16)&amp;","</f>
+        <v xml:space="preserve">    89.0911445134848, 88.5324445416215, 87.0910359680253, 82.4921267819554, 78.4048641973942, 65.1080047693413,</v>
+      </c>
       <c r="K16" s="78" t="s">
         <v>16</v>
       </c>
@@ -1741,8 +1791,12 @@
       <c r="R16" s="31">
         <v>12.24400547643862</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S16" s="25" t="str">
+        <f t="shared" ref="S16:S19" si="5">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,M16:R16)&amp;","</f>
+        <v xml:space="preserve">    5.89235390396588, 6.37146727761329, 7.23480972458966, 10.8455327565657, 12.8175358830218, 12.2440054764386,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="78" t="s">
         <v>17</v>
       </c>
@@ -1766,7 +1820,10 @@
         <v>72.552621372052599</v>
       </c>
       <c r="I17" s="32"/>
-      <c r="J17" s="25"/>
+      <c r="J17" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    85.7413740832265, 85.804305125364, 86.0807041226895, 85.5432106761386, 83.0157094593107, 72.5526213720526,</v>
+      </c>
       <c r="K17" s="78" t="s">
         <v>17</v>
       </c>
@@ -1789,8 +1846,12 @@
       <c r="R17" s="31">
         <v>8.555663894113005</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S17" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    5.56916965875857, 5.94594753688102, 6.14189444543318, 7.27243161090641, 8.00035296493817, 8.555663894113,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="68" t="s">
         <v>23</v>
       </c>
@@ -1816,7 +1877,10 @@
         <v>67.96520669264342</v>
       </c>
       <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
+      <c r="J18" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    91.1501850181454, 90.6634454303777, 91.2145478324559, 89.2315711894124, 84.9804667191852, 67.9652066926434,</v>
+      </c>
       <c r="K18" s="68" t="s">
         <v>23</v>
       </c>
@@ -1841,8 +1905,12 @@
       <c r="R18" s="27">
         <v>9.7048299468359911</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S18" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    4.19759417520077, 4.8503486283255, 4.51948185967846, 5.49080891394021, 5.71892474430354, 9.70482994683599,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="68" t="s">
         <v>24</v>
       </c>
@@ -1868,7 +1936,10 @@
         <v>71.204247790888218</v>
       </c>
       <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
+      <c r="J19" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">    92.5787676431123, 90.8056829705004, 89.5796530014999, 87.3394418823014, 83.0669015171512, 71.2042477908882,</v>
+      </c>
       <c r="K19" s="68" t="s">
         <v>24</v>
       </c>
@@ -1893,8 +1964,12 @@
       <c r="R19" s="27">
         <v>7.9502861347038616</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S19" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">    3.72267194287719, 4.4500612276714, 5.1740468516561, 5.43429144099148, 6.60998557312891, 7.95028613470386,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="38"/>
       <c r="C20" s="49"/>
@@ -1913,33 +1988,35 @@
       <c r="P20" s="49"/>
       <c r="Q20" s="49"/>
       <c r="R20" s="50"/>
-    </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="S20" s="25"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="92"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="82"/>
       <c r="I21" s="24"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="90" t="s">
+      <c r="K21" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="92"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="93" t="s">
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="25"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="83" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="70" t="s">
@@ -1964,8 +2041,11 @@
         <v>60.433547736945336</v>
       </c>
       <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="93" t="s">
+      <c r="J22" s="25" t="str">
+        <f t="shared" ref="J22:J25" si="6">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C22:H22)&amp;","</f>
+        <v xml:space="preserve">    92.8207387920056, 91.9600761036349, 90.6236112286674, 87.1474019085235, 80.684883446066, 60.4335477369453,</v>
+      </c>
+      <c r="K22" s="83" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="70" t="s">
@@ -1989,9 +2069,13 @@
       <c r="R22" s="35">
         <v>11.156546553337531</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="94"/>
+      <c r="S22" s="25" t="str">
+        <f t="shared" ref="S22:S25" si="7">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,M22:R22)&amp;","</f>
+        <v xml:space="preserve">    3.98327852872266, 4.38448187556386, 4.39336820195897, 5.72583602069598, 7.95714410323285, 11.1565465533375,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="84"/>
       <c r="B23" s="71" t="s">
         <v>5</v>
       </c>
@@ -2014,8 +2098,11 @@
         <v>62.583030132951436</v>
       </c>
       <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="94"/>
+      <c r="J23" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">    93.155419737732, 92.8912521015694, 92.3548204315351, 89.2622376649117, 83.8174151423026, 62.5830301329514,</v>
+      </c>
+      <c r="K23" s="84"/>
       <c r="L23" s="71" t="s">
         <v>5</v>
       </c>
@@ -2037,9 +2124,13 @@
       <c r="R23" s="28">
         <v>11.798403704025185</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="94"/>
+      <c r="S23" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    3.87071017475262, 4.30792840511364, 4.42053567661148, 5.30979502232377, 6.7759657284131, 11.7984037040252,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="84"/>
       <c r="B24" s="71" t="s">
         <v>6</v>
       </c>
@@ -2062,8 +2153,11 @@
         <v>58.992680230672832</v>
       </c>
       <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="94"/>
+      <c r="J24" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">    92.8212790563154, 92.7334806213036, 92.203500219401, 91.0713029256019, 85.6128154755941, 58.9926802306728,</v>
+      </c>
+      <c r="K24" s="84"/>
       <c r="L24" s="71" t="s">
         <v>6</v>
       </c>
@@ -2085,9 +2179,13 @@
       <c r="R24" s="28">
         <v>10.091912686159521</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
+      <c r="S24" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    3.65416714341737, 3.87258556795248, 4.04662761069905, 4.85266767787234, 6.19135171213625, 10.0919126861595,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="85"/>
       <c r="B25" s="66" t="s">
         <v>7</v>
       </c>
@@ -2110,8 +2208,11 @@
         <v>63.593677785045287</v>
       </c>
       <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="95"/>
+      <c r="J25" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">    93.2438332336506, 92.2441526623004, 91.779399224683, 88.9423765300636, 84.0744154270722, 63.5936777850453,</v>
+      </c>
+      <c r="K25" s="85"/>
       <c r="L25" s="66" t="s">
         <v>7</v>
       </c>
@@ -2133,8 +2234,12 @@
       <c r="R25" s="44">
         <v>12.320009696250258</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="25" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    3.87790210268169, 5.45993303867658, 4.31469816449559, 5.2914242658912, 7.06864497761669, 12.3200096962503,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
@@ -2142,7 +2247,7 @@
       <c r="H28"/>
       <c r="I28"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
@@ -2152,12 +2257,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="A16:B16"/>
@@ -2166,12 +2271,12 @@
     <mergeCell ref="K8:R8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="K9:K12"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="K22:K25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:A4">
@@ -2322,6 +2427,40 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C2:H3 A7:H12 C5:H6">
+    <cfRule type="colorScale" priority="1278">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1279">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:H6 C9:H12">
+    <cfRule type="colorScale" priority="1267">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C4:H4">
     <cfRule type="colorScale" priority="43">
       <colorScale>
@@ -2414,6 +2553,174 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C9:H12 C2:H6">
+    <cfRule type="colorScale" priority="1269">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:H12">
+    <cfRule type="colorScale" priority="1179">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I3 I4:I12">
+    <cfRule type="colorScale" priority="1284">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1285">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1286">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1287">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1288">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:I12 C2:I6">
+    <cfRule type="colorScale" priority="1274">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I6 I9:I12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I12 C2:H3 C5:H7">
+    <cfRule type="colorScale" priority="1271">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1294">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I12">
+    <cfRule type="colorScale" priority="1165">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I12 I5:I6 C5:H7">
+    <cfRule type="colorScale" priority="1261">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1262">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I12 I2:I6">
+    <cfRule type="colorScale" priority="1276">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K3:K4">
     <cfRule type="colorScale" priority="18">
       <colorScale>
@@ -2506,6 +2813,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K9:L12">
+    <cfRule type="colorScale" priority="1167">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1168">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K16:L16">
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -2574,232 +2903,6 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I12">
-    <cfRule type="colorScale" priority="1165">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9:L12">
-    <cfRule type="colorScale" priority="1167">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1168">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:H12">
-    <cfRule type="colorScale" priority="1179">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I12 I5:I6 C5:H7">
-    <cfRule type="colorScale" priority="1261">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1262">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:H6 C9:H12">
-    <cfRule type="colorScale" priority="1267">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:H12 C2:H6">
-    <cfRule type="colorScale" priority="1269">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I12 C2:H3 C5:H7">
-    <cfRule type="colorScale" priority="1271">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:I12 C2:I6">
-    <cfRule type="colorScale" priority="1274">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I12 I2:I6">
-    <cfRule type="colorScale" priority="1276">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:H3 A7:H12 C5:H6">
-    <cfRule type="colorScale" priority="1278">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1279">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I3 I4:I12">
-    <cfRule type="colorScale" priority="1284">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1285">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1286">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1287">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1288">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I12 C2:H3 C5:H7">
-    <cfRule type="colorScale" priority="1294">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I6 I9:I12">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2885,10 +2988,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="96"/>
+      <c r="B2" s="95"/>
       <c r="C2" s="6">
         <v>93.101364775358491</v>
       </c>
@@ -2915,10 +3018,10 @@
         <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:H2)&amp;","</f>
         <v xml:space="preserve">    93.1013647753585, 91.3266637254648, 89.7225610371485, 83.857204647099, 76.2429490451186, 60.4027774173364,</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="96"/>
+      <c r="L2" s="95"/>
       <c r="M2" s="5">
         <v>3.4649270444699574</v>
       </c>
@@ -2939,10 +3042,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="81"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="10">
         <v>88.992361525618733</v>
       </c>
@@ -2969,10 +3072,10 @@
         <f t="shared" ref="J3:J6" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C3:H3)&amp;","</f>
         <v xml:space="preserve">    88.9923615256187, 88.6707093775321, 87.4696897608688, 83.7447699951268, 80.5426258012612, 69.1722794603183,</v>
       </c>
-      <c r="K3" s="80" t="s">
+      <c r="K3" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="81"/>
+      <c r="L3" s="96"/>
       <c r="M3" s="10">
         <v>6.9511270881584188</v>
       </c>
@@ -2993,10 +3096,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="10">
         <v>86.516927770424758</v>
       </c>
@@ -3023,10 +3126,10 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    86.5169277704248, 86.6656804989662, 86.8535396788323, 86.3719784196519, 83.995380582877, 73.7815667378899,</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="81"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="10">
         <v>5.1834070986462946</v>
       </c>
@@ -3183,31 +3286,31 @@
       <c r="R7" s="17"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="90"/>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="82" t="s">
+      <c r="K8" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="84"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="90"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="91" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="59" t="s">
@@ -3239,7 +3342,7 @@
         <f t="shared" ref="J9:J15" si="1">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C9:H9)&amp;","</f>
         <v xml:space="preserve">    93.1878764810538, 92.4199430790924, 91.0303059138343, 87.6380620362921, 81.3864969996857, 61.6489012304028,</v>
       </c>
-      <c r="K9" s="85" t="s">
+      <c r="K9" s="91" t="s">
         <v>0</v>
       </c>
       <c r="L9" s="59" t="s">
@@ -3265,7 +3368,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="86"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="61" t="s">
         <v>2</v>
       </c>
@@ -3295,7 +3398,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.3088031326684, 92.3265483842132, 90.9441315812997, 88.4441128383463, 81.1423166867072, 62.6067901394764,</v>
       </c>
-      <c r="K10" s="86"/>
+      <c r="K10" s="92"/>
       <c r="L10" s="61" t="s">
         <v>2</v>
       </c>
@@ -3319,7 +3422,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="86"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="61" t="s">
         <v>3</v>
       </c>
@@ -3349,7 +3452,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.3117068486752, 92.9705649126146, 92.7149110286421, 91.6185289953489, 84.5378795087616, 58.7284838104136,</v>
       </c>
-      <c r="K11" s="86"/>
+      <c r="K11" s="92"/>
       <c r="L11" s="61" t="s">
         <v>3</v>
       </c>
@@ -3373,7 +3476,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="86"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="61" t="s">
         <v>4</v>
       </c>
@@ -3403,7 +3506,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.259627390087, 92.9646652075999, 92.4495684795428, 90.9554523251355, 84.1916279552591, 61.8879892271271,</v>
       </c>
-      <c r="K12" s="86"/>
+      <c r="K12" s="92"/>
       <c r="L12" s="61" t="s">
         <v>4</v>
       </c>
@@ -3427,7 +3530,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="86"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="61" t="s">
         <v>5</v>
       </c>
@@ -3457,7 +3560,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.593909405214, 93.2842844661286, 92.6697145592378, 89.612317868955, 84.3251268032884, 63.6092728599152,</v>
       </c>
-      <c r="K13" s="86"/>
+      <c r="K13" s="92"/>
       <c r="L13" s="61" t="s">
         <v>5</v>
       </c>
@@ -3481,7 +3584,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="86"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="61" t="s">
         <v>6</v>
       </c>
@@ -3511,7 +3614,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.2714037318662, 93.1593324048363, 92.6079349013977, 91.3957675527758, 86.1000989051232, 60.1390986657901,</v>
       </c>
-      <c r="K14" s="86"/>
+      <c r="K14" s="92"/>
       <c r="L14" s="61" t="s">
         <v>6</v>
       </c>
@@ -3535,7 +3638,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="87"/>
+      <c r="A15" s="93"/>
       <c r="B15" s="63" t="s">
         <v>7</v>
       </c>
@@ -3565,7 +3668,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.6145872080785, 92.6837285212963, 92.0673016202562, 89.309630706148, 84.609852449704, 64.470915261666,</v>
       </c>
-      <c r="K15" s="87"/>
+      <c r="K15" s="93"/>
       <c r="L15" s="63" t="s">
         <v>7</v>
       </c>
@@ -3589,31 +3692,31 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="90"/>
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="82" t="s">
+      <c r="K16" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="84"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="90"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="91" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="58" t="s">
@@ -3645,7 +3748,7 @@
         <f t="shared" ref="J17:J23" si="2">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C17:H17)&amp;","</f>
         <v xml:space="preserve">    92.797460762348, 92.0997298131183, 91.9941233632355, 89.5415358264345, 81.671960830111, 63.762388371295,</v>
       </c>
-      <c r="K17" s="85" t="s">
+      <c r="K17" s="91" t="s">
         <v>0</v>
       </c>
       <c r="L17" s="58" t="s">
@@ -3671,7 +3774,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="86"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="60" t="s">
         <v>2</v>
       </c>
@@ -3701,7 +3804,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    92.9774363676733, 92.087691069992, 91.4883317906441, 87.8174984212666, 80.8338797625124, 68.6335867957335,</v>
       </c>
-      <c r="K18" s="86"/>
+      <c r="K18" s="92"/>
       <c r="L18" s="60" t="s">
         <v>2</v>
       </c>
@@ -3725,7 +3828,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="86"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="60" t="s">
         <v>3</v>
       </c>
@@ -3755,7 +3858,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    92.9627188239806, 92.5792351144906, 91.7365317462377, 90.8310740865694, 86.9604869707639, 69.9580561538883,</v>
       </c>
-      <c r="K19" s="86"/>
+      <c r="K19" s="92"/>
       <c r="L19" s="60" t="s">
         <v>3</v>
       </c>
@@ -3779,7 +3882,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="86"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="60" t="s">
         <v>4</v>
       </c>
@@ -3809,7 +3912,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    91.6736419288518, 91.86739504667, 91.5038163536594, 91.3791757137461, 88.8318295717668, 70.0239707955951,</v>
       </c>
-      <c r="K20" s="86"/>
+      <c r="K20" s="92"/>
       <c r="L20" s="60" t="s">
         <v>4</v>
       </c>
@@ -3833,7 +3936,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="86"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="60" t="s">
         <v>5</v>
       </c>
@@ -3863,7 +3966,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    92.5221988656188, 92.2587017765436, 91.2860636049331, 87.3472723235784, 80.9240795047247, 68.7709870615951,</v>
       </c>
-      <c r="K21" s="86"/>
+      <c r="K21" s="92"/>
       <c r="L21" s="60" t="s">
         <v>5</v>
       </c>
@@ -3887,7 +3990,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="86"/>
+      <c r="A22" s="92"/>
       <c r="B22" s="60" t="s">
         <v>6</v>
       </c>
@@ -3917,7 +4020,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    92.9046618050329, 92.5762852619832, 92.469101520486, 90.6671366822666, 86.385868389865, 70.3416811564114,</v>
       </c>
-      <c r="K22" s="86"/>
+      <c r="K22" s="92"/>
       <c r="L22" s="60" t="s">
         <v>6</v>
       </c>
@@ -3941,7 +4044,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="87"/>
+      <c r="A23" s="93"/>
       <c r="B23" s="62" t="s">
         <v>7</v>
       </c>
@@ -3971,7 +4074,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    92.5320086390598, 92.5113596715081, 92.4317943926851, 89.8021897536599, 84.2700196368481, 69.7281118348775,</v>
       </c>
-      <c r="K23" s="87"/>
+      <c r="K23" s="93"/>
       <c r="L23" s="62" t="s">
         <v>7</v>
       </c>
@@ -4048,10 +4151,10 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="89"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="26">
         <v>92.567111769713335</v>
       </c>
@@ -4072,10 +4175,10 @@
       </c>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="88" t="s">
+      <c r="K26" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="89"/>
+      <c r="L26" s="87"/>
       <c r="M26" s="25">
         <v>3.88093621561358</v>
       </c>
@@ -4316,31 +4419,31 @@
       <c r="R31" s="50"/>
     </row>
     <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="91"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="92"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="82"/>
       <c r="I32" s="24"/>
       <c r="J32" s="25"/>
-      <c r="K32" s="90" t="s">
+      <c r="K32" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="92"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="82"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="93" t="s">
+      <c r="A33" s="83" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="70" t="s">
@@ -4366,7 +4469,7 @@
       </c>
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
-      <c r="K33" s="93" t="s">
+      <c r="K33" s="83" t="s">
         <v>0</v>
       </c>
       <c r="L33" s="70" t="s">
@@ -4392,7 +4495,7 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="94"/>
+      <c r="A34" s="84"/>
       <c r="B34" s="71" t="s">
         <v>2</v>
       </c>
@@ -4416,7 +4519,7 @@
       </c>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
-      <c r="K34" s="94"/>
+      <c r="K34" s="84"/>
       <c r="L34" s="71" t="s">
         <v>2</v>
       </c>
@@ -4440,7 +4543,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="94"/>
+      <c r="A35" s="84"/>
       <c r="B35" s="71" t="s">
         <v>3</v>
       </c>
@@ -4464,7 +4567,7 @@
       </c>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
-      <c r="K35" s="94"/>
+      <c r="K35" s="84"/>
       <c r="L35" s="71" t="s">
         <v>3</v>
       </c>
@@ -4488,7 +4591,7 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="94"/>
+      <c r="A36" s="84"/>
       <c r="B36" s="71" t="s">
         <v>4</v>
       </c>
@@ -4512,7 +4615,7 @@
       </c>
       <c r="I36" s="25"/>
       <c r="J36" s="25"/>
-      <c r="K36" s="94"/>
+      <c r="K36" s="84"/>
       <c r="L36" s="71" t="s">
         <v>4</v>
       </c>
@@ -4536,7 +4639,7 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="94"/>
+      <c r="A37" s="84"/>
       <c r="B37" s="71" t="s">
         <v>5</v>
       </c>
@@ -4560,7 +4663,7 @@
       </c>
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
-      <c r="K37" s="94"/>
+      <c r="K37" s="84"/>
       <c r="L37" s="71" t="s">
         <v>5</v>
       </c>
@@ -4584,7 +4687,7 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="94"/>
+      <c r="A38" s="84"/>
       <c r="B38" s="71" t="s">
         <v>6</v>
       </c>
@@ -4608,7 +4711,7 @@
       </c>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="94"/>
+      <c r="K38" s="84"/>
       <c r="L38" s="71" t="s">
         <v>6</v>
       </c>
@@ -4632,7 +4735,7 @@
       </c>
     </row>
     <row r="39" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="95"/>
+      <c r="A39" s="85"/>
       <c r="B39" s="66" t="s">
         <v>7</v>
       </c>
@@ -4656,7 +4759,7 @@
       </c>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="95"/>
+      <c r="K39" s="85"/>
       <c r="L39" s="66" t="s">
         <v>7</v>
       </c>
@@ -4700,31 +4803,31 @@
       <c r="R40" s="28"/>
     </row>
     <row r="41" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="90" t="s">
+      <c r="A41" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="92"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="82"/>
       <c r="I41" s="24"/>
       <c r="J41" s="25"/>
-      <c r="K41" s="90" t="s">
+      <c r="K41" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91"/>
-      <c r="N41" s="91"/>
-      <c r="O41" s="91"/>
-      <c r="P41" s="91"/>
-      <c r="Q41" s="91"/>
-      <c r="R41" s="92"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="81"/>
+      <c r="N41" s="81"/>
+      <c r="O41" s="81"/>
+      <c r="P41" s="81"/>
+      <c r="Q41" s="81"/>
+      <c r="R41" s="82"/>
     </row>
     <row r="42" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="93" t="s">
+      <c r="A42" s="83" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="70" t="s">
@@ -4750,7 +4853,7 @@
       </c>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
-      <c r="K42" s="93" t="s">
+      <c r="K42" s="83" t="s">
         <v>0</v>
       </c>
       <c r="L42" s="70" t="s">
@@ -4776,7 +4879,7 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="94"/>
+      <c r="A43" s="84"/>
       <c r="B43" s="71" t="s">
         <v>2</v>
       </c>
@@ -4800,7 +4903,7 @@
       </c>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
-      <c r="K43" s="94"/>
+      <c r="K43" s="84"/>
       <c r="L43" s="71" t="s">
         <v>2</v>
       </c>
@@ -4824,7 +4927,7 @@
       </c>
     </row>
     <row r="44" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="94"/>
+      <c r="A44" s="84"/>
       <c r="B44" s="71" t="s">
         <v>3</v>
       </c>
@@ -4848,7 +4951,7 @@
       </c>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="94"/>
+      <c r="K44" s="84"/>
       <c r="L44" s="71" t="s">
         <v>3</v>
       </c>
@@ -4872,7 +4975,7 @@
       </c>
     </row>
     <row r="45" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="94"/>
+      <c r="A45" s="84"/>
       <c r="B45" s="71" t="s">
         <v>4</v>
       </c>
@@ -4896,7 +4999,7 @@
       </c>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
-      <c r="K45" s="94"/>
+      <c r="K45" s="84"/>
       <c r="L45" s="71" t="s">
         <v>4</v>
       </c>
@@ -4920,7 +5023,7 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="94"/>
+      <c r="A46" s="84"/>
       <c r="B46" s="71" t="s">
         <v>5</v>
       </c>
@@ -4944,7 +5047,7 @@
       </c>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="94"/>
+      <c r="K46" s="84"/>
       <c r="L46" s="71" t="s">
         <v>5</v>
       </c>
@@ -4968,7 +5071,7 @@
       </c>
     </row>
     <row r="47" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="94"/>
+      <c r="A47" s="84"/>
       <c r="B47" s="71" t="s">
         <v>6</v>
       </c>
@@ -4992,7 +5095,7 @@
       </c>
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
-      <c r="K47" s="94"/>
+      <c r="K47" s="84"/>
       <c r="L47" s="71" t="s">
         <v>6</v>
       </c>
@@ -5016,7 +5119,7 @@
       </c>
     </row>
     <row r="48" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="95"/>
+      <c r="A48" s="85"/>
       <c r="B48" s="66" t="s">
         <v>7</v>
       </c>
@@ -5040,7 +5143,7 @@
       </c>
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
-      <c r="K48" s="95"/>
+      <c r="K48" s="85"/>
       <c r="L48" s="66" t="s">
         <v>7</v>
       </c>
@@ -5081,20 +5184,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="K41:R41"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="K42:K48"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="K32:R32"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="K33:K39"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="A4:B4"/>
@@ -5109,6 +5198,20 @@
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="K9:K15"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="K41:R41"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="K42:K48"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="K32:R32"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="K33:K39"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="K8:R8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:A4">
@@ -5281,6 +5384,132 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C2:H3 A7:H23 C5:H6">
+    <cfRule type="colorScale" priority="980">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="981">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:H4">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:H15">
+    <cfRule type="colorScale" priority="990">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C17:H23 C2:H6 C9:H15">
     <cfRule type="colorScale" priority="62">
       <colorScale>
@@ -5293,98 +5522,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:H4">
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C17:H23 C9:H15 C2:H6">
     <cfRule type="colorScale" priority="64">
       <colorScale>
@@ -5431,6 +5568,58 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C2:I3 I3:I23">
+    <cfRule type="colorScale" priority="997">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="998">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="999">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1000">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1001">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C17:I23 C9:I15 C2:I6">
     <cfRule type="colorScale" priority="66">
       <colorScale>
@@ -5455,6 +5644,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I23 C2:H3 C5:H7">
+    <cfRule type="colorScale" priority="1014">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I23">
+    <cfRule type="colorScale" priority="1018">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I12:I19 I8:I10 I5:I6 C5:H7 I21:I23">
     <cfRule type="colorScale" priority="94">
       <colorScale>
@@ -5715,116 +5928,6 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:H3 A7:H23 C5:H6">
-    <cfRule type="colorScale" priority="980">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="981">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:H15">
-    <cfRule type="colorScale" priority="990">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:I3 I3:I23">
-    <cfRule type="colorScale" priority="997">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="998">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="999">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1000">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1001">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I23 C2:H3 C5:H7">
-    <cfRule type="colorScale" priority="1014">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I23">
-    <cfRule type="colorScale" priority="1018">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5910,10 +6013,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="96"/>
+      <c r="B2" s="95"/>
       <c r="C2" s="6">
         <v>93.101364775358491</v>
       </c>
@@ -5940,10 +6043,10 @@
         <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:H2)&amp;","</f>
         <v xml:space="preserve">    93.1013647753585, 91.3266637254648, 89.7225610371485, 83.857204647099, 76.2429490451186, 60.4027774173364,</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="96"/>
+      <c r="L2" s="95"/>
       <c r="M2" s="5">
         <v>3.4649270444699574</v>
       </c>
@@ -5964,10 +6067,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="81"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="10">
         <v>88.992361525618733</v>
       </c>
@@ -5994,10 +6097,10 @@
         <f t="shared" ref="J3:J6" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C3:H3)&amp;","</f>
         <v xml:space="preserve">    88.9923615256187, 88.6707093775321, 87.4696897608688, 83.7447699951268, 80.5426258012612, 69.1722794603183,</v>
       </c>
-      <c r="K3" s="80" t="s">
+      <c r="K3" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="81"/>
+      <c r="L3" s="96"/>
       <c r="M3" s="10">
         <v>6.9511270881584188</v>
       </c>
@@ -6018,10 +6121,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="10">
         <v>86.516927770424758</v>
       </c>
@@ -6048,10 +6151,10 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    86.5169277704248, 86.6656804989662, 86.8535396788323, 86.3719784196519, 83.995380582877, 73.7815667378899,</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="81"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="10">
         <v>5.1834070986462946</v>
       </c>
@@ -6208,31 +6311,31 @@
       <c r="R7" s="17"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="90"/>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="82" t="s">
+      <c r="K8" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
-      <c r="R8" s="84"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="90"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="91" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="59" t="s">
@@ -6264,7 +6367,7 @@
         <f t="shared" ref="J9:J12" si="1">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C9:H9)&amp;","</f>
         <v xml:space="preserve">    93.3088031326684, 92.3265483842132, 90.9441315812997, 88.4441128383463, 81.1423166867072, 62.6067901394764,</v>
       </c>
-      <c r="K9" s="85" t="s">
+      <c r="K9" s="91" t="s">
         <v>0</v>
       </c>
       <c r="L9" s="59" t="s">
@@ -6290,7 +6393,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="86"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="61" t="s">
         <v>4</v>
       </c>
@@ -6320,7 +6423,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.259627390087, 92.9646652075999, 92.4495684795428, 90.9554523251355, 84.1916279552591, 61.8879892271271,</v>
       </c>
-      <c r="K10" s="86"/>
+      <c r="K10" s="92"/>
       <c r="L10" s="61" t="s">
         <v>4</v>
       </c>
@@ -6344,7 +6447,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="86"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="61" t="s">
         <v>5</v>
       </c>
@@ -6374,7 +6477,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.593909405214, 93.2842844661286, 92.6697145592378, 89.612317868955, 84.3251268032884, 63.6092728599152,</v>
       </c>
-      <c r="K11" s="86"/>
+      <c r="K11" s="92"/>
       <c r="L11" s="61" t="s">
         <v>5</v>
       </c>
@@ -6398,7 +6501,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="63" t="s">
         <v>6</v>
       </c>
@@ -6428,7 +6531,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.2714037318662, 93.1593324048363, 92.6079349013977, 91.3957675527758, 86.1000989051232, 60.1390986657901,</v>
       </c>
-      <c r="K12" s="87"/>
+      <c r="K12" s="93"/>
       <c r="L12" s="63" t="s">
         <v>6</v>
       </c>
@@ -6452,31 +6555,31 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="102"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="99"/>
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="100" t="s">
+      <c r="K13" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="102"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="99"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="91" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="58" t="s">
@@ -6508,7 +6611,7 @@
         <f t="shared" ref="J14:J17" si="2">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C14:H14)&amp;","</f>
         <v xml:space="preserve">    92.9774363676733, 92.087691069992, 91.4883317906441, 87.8174984212666, 80.8338797625124, 68.6335867957335,</v>
       </c>
-      <c r="K14" s="85" t="s">
+      <c r="K14" s="91" t="s">
         <v>0</v>
       </c>
       <c r="L14" s="58" t="s">
@@ -6534,7 +6637,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="86"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="60" t="s">
         <v>4</v>
       </c>
@@ -6564,7 +6667,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    91.6736419288518, 91.86739504667, 91.5038163536594, 91.3791757137461, 88.8318295717668, 70.0239707955951,</v>
       </c>
-      <c r="K15" s="86"/>
+      <c r="K15" s="92"/>
       <c r="L15" s="60" t="s">
         <v>4</v>
       </c>
@@ -6588,7 +6691,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="86"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="60" t="s">
         <v>5</v>
       </c>
@@ -6618,7 +6721,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    92.5221988656188, 92.2587017765436, 91.2860636049331, 87.3472723235784, 80.9240795047247, 68.7709870615951,</v>
       </c>
-      <c r="K16" s="86"/>
+      <c r="K16" s="92"/>
       <c r="L16" s="60" t="s">
         <v>5</v>
       </c>
@@ -6642,7 +6745,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="62" t="s">
         <v>6</v>
       </c>
@@ -6672,7 +6775,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    92.9046618050329, 92.5762852619832, 92.469101520486, 90.6671366822666, 86.385868389865, 70.3416811564114,</v>
       </c>
-      <c r="K17" s="87"/>
+      <c r="K17" s="93"/>
       <c r="L17" s="62" t="s">
         <v>6</v>
       </c>
@@ -6749,10 +6852,10 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="89"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="26">
         <v>92.567111769713335</v>
       </c>
@@ -6773,10 +6876,10 @@
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="88" t="s">
+      <c r="K20" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="89"/>
+      <c r="L20" s="87"/>
       <c r="M20" s="25">
         <v>3.88093621561358</v>
       </c>
@@ -7017,31 +7120,31 @@
       <c r="R25" s="50"/>
     </row>
     <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="92"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="82"/>
       <c r="I26" s="24"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="90" t="s">
+      <c r="K26" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="92"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="82"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="83" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="70" t="s">
@@ -7067,7 +7170,7 @@
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="93" t="s">
+      <c r="K27" s="83" t="s">
         <v>0</v>
       </c>
       <c r="L27" s="70" t="s">
@@ -7093,7 +7196,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="94"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="71" t="s">
         <v>4</v>
       </c>
@@ -7117,7 +7220,7 @@
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
-      <c r="K28" s="94"/>
+      <c r="K28" s="84"/>
       <c r="L28" s="71" t="s">
         <v>4</v>
       </c>
@@ -7141,7 +7244,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="94"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="71" t="s">
         <v>5</v>
       </c>
@@ -7165,7 +7268,7 @@
       </c>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
-      <c r="K29" s="94"/>
+      <c r="K29" s="84"/>
       <c r="L29" s="71" t="s">
         <v>5</v>
       </c>
@@ -7189,7 +7292,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="95"/>
+      <c r="A30" s="85"/>
       <c r="B30" s="66" t="s">
         <v>6</v>
       </c>
@@ -7213,7 +7316,7 @@
       </c>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="95"/>
+      <c r="K30" s="85"/>
       <c r="L30" s="66" t="s">
         <v>6</v>
       </c>
@@ -7237,31 +7340,31 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="97" t="s">
+      <c r="A31" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="98"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="99"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="102"/>
       <c r="I31" s="24"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="97" t="s">
+      <c r="K31" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="98"/>
-      <c r="M31" s="98"/>
-      <c r="N31" s="98"/>
-      <c r="O31" s="98"/>
-      <c r="P31" s="98"/>
-      <c r="Q31" s="98"/>
-      <c r="R31" s="99"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="102"/>
     </row>
     <row r="32" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="83" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="70" t="s">
@@ -7287,7 +7390,7 @@
       </c>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
-      <c r="K32" s="93" t="s">
+      <c r="K32" s="83" t="s">
         <v>0</v>
       </c>
       <c r="L32" s="70" t="s">
@@ -7313,7 +7416,7 @@
       </c>
     </row>
     <row r="33" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="94"/>
+      <c r="A33" s="84"/>
       <c r="B33" s="71" t="s">
         <v>4</v>
       </c>
@@ -7337,7 +7440,7 @@
       </c>
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
-      <c r="K33" s="94"/>
+      <c r="K33" s="84"/>
       <c r="L33" s="71" t="s">
         <v>4</v>
       </c>
@@ -7361,7 +7464,7 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="94"/>
+      <c r="A34" s="84"/>
       <c r="B34" s="71" t="s">
         <v>5</v>
       </c>
@@ -7385,7 +7488,7 @@
       </c>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
-      <c r="K34" s="94"/>
+      <c r="K34" s="84"/>
       <c r="L34" s="71" t="s">
         <v>5</v>
       </c>
@@ -7409,7 +7512,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="95"/>
+      <c r="A35" s="85"/>
       <c r="B35" s="66" t="s">
         <v>6</v>
       </c>
@@ -7433,7 +7536,7 @@
       </c>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
-      <c r="K35" s="95"/>
+      <c r="K35" s="85"/>
       <c r="L35" s="66" t="s">
         <v>6</v>
       </c>
@@ -7474,24 +7577,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="K21:L21"/>
     <mergeCell ref="A31:H31"/>
     <mergeCell ref="K31:R31"/>
     <mergeCell ref="A32:A35"/>
@@ -7502,6 +7587,24 @@
     <mergeCell ref="K26:R26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="K27:K30"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:A4">
@@ -8769,10 +8872,10 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="96"/>
+      <c r="B2" s="95"/>
       <c r="C2" s="6">
         <v>93.101364775358491</v>
       </c>
@@ -8806,10 +8909,10 @@
         <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
         <v xml:space="preserve">    93.1013647753585, 91.3266637254648, 89.7225610371485, 83.857204647099, 76.2429490451186, 60.4027774173364, 47.7409002961387,</v>
       </c>
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="96"/>
+      <c r="N2" s="95"/>
       <c r="O2" s="5">
         <v>3.4649270444699574</v>
       </c>
@@ -8834,10 +8937,10 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="81"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="13">
         <v>89.854101967433408</v>
       </c>
@@ -8865,10 +8968,10 @@
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="80" t="s">
+      <c r="M3" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="81"/>
+      <c r="N3" s="96"/>
       <c r="O3" s="13">
         <v>5.3152084941070079</v>
       </c>
@@ -8893,10 +8996,10 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="19">
         <v>86.516927770424758</v>
       </c>
@@ -8924,10 +9027,10 @@
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="80" t="s">
+      <c r="M4" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="81"/>
+      <c r="N4" s="96"/>
       <c r="O4" s="5">
         <v>5.1834070986462946</v>
       </c>
@@ -8952,7 +9055,7 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="107" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="59" t="s">
@@ -8991,7 +9094,7 @@
         <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C5:I5)&amp;","</f>
         <v xml:space="preserve">    92.9951758521556, 92.6019775257572, 91.3657038555697, 85.3367878038161, 79.4453671744565, 66.8094937384118, 59.142645409274,</v>
       </c>
-      <c r="M5" s="114" t="s">
+      <c r="M5" s="107" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="59" t="s">
@@ -9021,7 +9124,7 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="115"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="55" t="s">
         <v>14</v>
       </c>
@@ -9055,7 +9158,7 @@
         <v>237.14984648079422</v>
       </c>
       <c r="L6" s="5"/>
-      <c r="M6" s="115"/>
+      <c r="M6" s="108"/>
       <c r="N6" s="55" t="s">
         <v>14</v>
       </c>
@@ -9083,7 +9186,7 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="116"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="55" t="s">
         <v>31</v>
       </c>
@@ -9114,7 +9217,7 @@
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="116"/>
+      <c r="M7" s="109"/>
       <c r="N7" s="55" t="s">
         <v>31</v>
       </c>
@@ -9142,7 +9245,7 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="88" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="72" t="s">
@@ -9178,7 +9281,7 @@
         <v>254.75177687523248</v>
       </c>
       <c r="L8" s="5"/>
-      <c r="M8" s="82" t="s">
+      <c r="M8" s="88" t="s">
         <v>29</v>
       </c>
       <c r="N8" s="72" t="s">
@@ -9208,7 +9311,7 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="100"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="51" t="s">
         <v>14</v>
       </c>
@@ -9242,7 +9345,7 @@
         <v>238.98150536192645</v>
       </c>
       <c r="L9" s="5"/>
-      <c r="M9" s="100"/>
+      <c r="M9" s="97"/>
       <c r="N9" s="51" t="s">
         <v>14</v>
       </c>
@@ -9270,7 +9373,7 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="113"/>
+      <c r="A10" s="106"/>
       <c r="B10" s="55" t="s">
         <v>31</v>
       </c>
@@ -9301,7 +9404,7 @@
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="113"/>
+      <c r="M10" s="106"/>
       <c r="N10" s="55" t="s">
         <v>31</v>
       </c>
@@ -9353,35 +9456,35 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="108"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="105"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="106" t="s">
+      <c r="M12" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="107"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="107"/>
-      <c r="U12" s="108"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="105"/>
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="91" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="59" t="s">
@@ -9417,7 +9520,7 @@
         <f t="shared" ref="L13:L19" si="2">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C13:I13)&amp;","</f>
         <v xml:space="preserve">    93.1878764810538, 92.4199430790924, 91.0303059138343, 87.6380620362921, 81.3864969996857, 61.6489012304028, 50.1996153369262,</v>
       </c>
-      <c r="M13" s="85" t="s">
+      <c r="M13" s="91" t="s">
         <v>0</v>
       </c>
       <c r="N13" s="59" t="s">
@@ -9447,7 +9550,7 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="86"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="61" t="s">
         <v>2</v>
       </c>
@@ -9481,7 +9584,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    93.3088031326684, 92.3265483842132, 90.9441315812997, 88.4441128383463, 81.1423166867072, 62.6067901394764, 47.7647903528577,</v>
       </c>
-      <c r="M14" s="86"/>
+      <c r="M14" s="92"/>
       <c r="N14" s="61" t="s">
         <v>2</v>
       </c>
@@ -9509,7 +9612,7 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="86"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="61" t="s">
         <v>3</v>
       </c>
@@ -9543,7 +9646,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    93.3117068486752, 92.9705649126146, 92.7149110286421, 91.6185289953489, 84.5378795087616, 58.7284838104136, 46.3212974737382,</v>
       </c>
-      <c r="M15" s="86"/>
+      <c r="M15" s="92"/>
       <c r="N15" s="61" t="s">
         <v>3</v>
       </c>
@@ -9571,7 +9674,7 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16" s="86"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="61" t="s">
         <v>4</v>
       </c>
@@ -9605,7 +9708,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    93.259627390087, 92.9646652075999, 92.4495684795428, 90.9554523251355, 84.1916279552591, 61.8879892271271, 46.8722912827966,</v>
       </c>
-      <c r="M16" s="86"/>
+      <c r="M16" s="92"/>
       <c r="N16" s="61" t="s">
         <v>4</v>
       </c>
@@ -9633,7 +9736,7 @@
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="86"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="61" t="s">
         <v>5</v>
       </c>
@@ -9667,7 +9770,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    93.593909405214, 93.2842844661286, 92.6697145592378, 89.612317868955, 84.3251268032884, 63.6092728599152, 49.4220768922453,</v>
       </c>
-      <c r="M17" s="86"/>
+      <c r="M17" s="92"/>
       <c r="N17" s="61" t="s">
         <v>5</v>
       </c>
@@ -9695,7 +9798,7 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="86"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="61" t="s">
         <v>6</v>
       </c>
@@ -9732,7 +9835,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    93.2714037318662, 93.1593324048363, 92.6079349013977, 91.3957675527758, 86.1000989051232, 60.1390986657901, 45.2422223952341,</v>
       </c>
-      <c r="M18" s="86"/>
+      <c r="M18" s="92"/>
       <c r="N18" s="61" t="s">
         <v>6</v>
       </c>
@@ -9760,7 +9863,7 @@
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87"/>
+      <c r="A19" s="93"/>
       <c r="B19" s="63" t="s">
         <v>7</v>
       </c>
@@ -9794,7 +9897,7 @@
         <f t="shared" si="2"/>
         <v xml:space="preserve">    93.6145872080785, 92.6837285212963, 92.0673016202562, 89.309630706148, 84.609852449704, 64.470915261666, 50.6630737866821,</v>
       </c>
-      <c r="M19" s="87"/>
+      <c r="M19" s="93"/>
       <c r="N19" s="63" t="s">
         <v>7</v>
       </c>
@@ -9846,35 +9949,35 @@
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="106" t="s">
+      <c r="A21" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="108"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="105"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="106" t="s">
+      <c r="M21" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107"/>
-      <c r="U21" s="108"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="104"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="105"/>
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="91" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="58" t="s">
@@ -9910,7 +10013,7 @@
         <f t="shared" ref="L22:L28" si="3">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C22:I22)&amp;","</f>
         <v xml:space="preserve">    92.797460762348, 92.0997298131183, 91.9941233632355, 89.5415358264345, 81.671960830111, 63.762388371295, 48.3579788752498,</v>
       </c>
-      <c r="M22" s="85" t="s">
+      <c r="M22" s="91" t="s">
         <v>0</v>
       </c>
       <c r="N22" s="58" t="s">
@@ -9940,7 +10043,7 @@
       <c r="V22" s="1"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="86"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="60" t="s">
         <v>2</v>
       </c>
@@ -9974,7 +10077,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">    92.9774363676733, 92.087691069992, 91.4883317906441, 87.8174984212666, 80.8338797625124, 68.6335867957335, 51.6792878831132,</v>
       </c>
-      <c r="M23" s="86"/>
+      <c r="M23" s="92"/>
       <c r="N23" s="60" t="s">
         <v>2</v>
       </c>
@@ -10002,7 +10105,7 @@
       <c r="V23" s="1"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="86"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="60" t="s">
         <v>3</v>
       </c>
@@ -10036,7 +10139,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">    92.9627188239806, 92.5792351144906, 91.7365317462377, 90.8310740865694, 86.9604869707639, 69.9580561538883, 54.8007335703596,</v>
       </c>
-      <c r="M24" s="86"/>
+      <c r="M24" s="92"/>
       <c r="N24" s="60" t="s">
         <v>3</v>
       </c>
@@ -10064,7 +10167,7 @@
       <c r="V24" s="1"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="86"/>
+      <c r="A25" s="92"/>
       <c r="B25" s="60" t="s">
         <v>4</v>
       </c>
@@ -10098,7 +10201,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">    91.6736419288518, 91.86739504667, 91.5038163536594, 91.3791757137461, 88.8318295717668, 70.0239707955951, 56.4206841466333,</v>
       </c>
-      <c r="M25" s="86"/>
+      <c r="M25" s="92"/>
       <c r="N25" s="60" t="s">
         <v>4</v>
       </c>
@@ -10126,7 +10229,7 @@
       <c r="V25" s="1"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="86"/>
+      <c r="A26" s="92"/>
       <c r="B26" s="60" t="s">
         <v>5</v>
       </c>
@@ -10160,7 +10263,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">    92.5221988656188, 92.2587017765436, 91.2860636049331, 87.3472723235784, 80.9240795047247, 68.7709870615951, 53.5879116601355,</v>
       </c>
-      <c r="M26" s="86"/>
+      <c r="M26" s="92"/>
       <c r="N26" s="60" t="s">
         <v>5</v>
       </c>
@@ -10188,7 +10291,7 @@
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="86"/>
+      <c r="A27" s="92"/>
       <c r="B27" s="60" t="s">
         <v>6</v>
       </c>
@@ -10225,7 +10328,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">    92.9046618050329, 92.5762852619832, 92.469101520486, 90.6671366822666, 86.385868389865, 70.3416811564114, 54.3467215691024,</v>
       </c>
-      <c r="M27" s="86"/>
+      <c r="M27" s="92"/>
       <c r="N27" s="60" t="s">
         <v>6</v>
       </c>
@@ -10253,7 +10356,7 @@
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="87"/>
+      <c r="A28" s="93"/>
       <c r="B28" s="62" t="s">
         <v>7</v>
       </c>
@@ -10287,7 +10390,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">    92.5320086390598, 92.5113596715081, 92.4317943926851, 89.8021897536599, 84.2700196368481, 69.7281118348775, 54.6168161777639,</v>
       </c>
-      <c r="M28" s="87"/>
+      <c r="M28" s="93"/>
       <c r="N28" s="62" t="s">
         <v>7</v>
       </c>
@@ -10379,10 +10482,10 @@
       <c r="V30" s="1"/>
     </row>
     <row r="31" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="89"/>
+      <c r="B31" s="87"/>
       <c r="C31" s="26">
         <v>92.567111769713335</v>
       </c>
@@ -10407,10 +10510,10 @@
       <c r="J31" s="25"/>
       <c r="K31" s="24"/>
       <c r="L31" s="25"/>
-      <c r="M31" s="88" t="s">
+      <c r="M31" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="N31" s="89"/>
+      <c r="N31" s="87"/>
       <c r="O31" s="25">
         <v>3.88093621561358</v>
       </c>
@@ -10547,7 +10650,7 @@
       <c r="V33" s="1"/>
     </row>
     <row r="34" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="103" t="s">
+      <c r="A34" s="114" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="70" t="s">
@@ -10577,7 +10680,7 @@
       <c r="J34" s="25"/>
       <c r="K34" s="24"/>
       <c r="L34" s="25"/>
-      <c r="M34" s="103" t="s">
+      <c r="M34" s="114" t="s">
         <v>8</v>
       </c>
       <c r="N34" s="70" t="s">
@@ -10607,7 +10710,7 @@
       <c r="V34" s="1"/>
     </row>
     <row r="35" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="104"/>
+      <c r="A35" s="115"/>
       <c r="B35" s="64" t="s">
         <v>14</v>
       </c>
@@ -10635,7 +10738,7 @@
       <c r="J35" s="25"/>
       <c r="K35" s="24"/>
       <c r="L35" s="25"/>
-      <c r="M35" s="104"/>
+      <c r="M35" s="115"/>
       <c r="N35" s="64" t="s">
         <v>14</v>
       </c>
@@ -10663,7 +10766,7 @@
       <c r="V35" s="1"/>
     </row>
     <row r="36" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="105"/>
+      <c r="A36" s="116"/>
       <c r="B36" s="73" t="s">
         <v>30</v>
       </c>
@@ -10691,7 +10794,7 @@
       <c r="J36" s="25"/>
       <c r="K36" s="24"/>
       <c r="L36" s="25"/>
-      <c r="M36" s="105"/>
+      <c r="M36" s="116"/>
       <c r="N36" s="73" t="s">
         <v>30</v>
       </c>
@@ -10719,7 +10822,7 @@
       <c r="V36" s="1"/>
     </row>
     <row r="37" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="103" t="s">
+      <c r="A37" s="114" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="74" t="s">
@@ -10749,7 +10852,7 @@
       <c r="J37" s="25"/>
       <c r="K37" s="24"/>
       <c r="L37" s="25"/>
-      <c r="M37" s="103" t="s">
+      <c r="M37" s="114" t="s">
         <v>29</v>
       </c>
       <c r="N37" s="74" t="s">
@@ -10779,7 +10882,7 @@
       <c r="V37" s="1"/>
     </row>
     <row r="38" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="104"/>
+      <c r="A38" s="115"/>
       <c r="B38" s="65" t="s">
         <v>14</v>
       </c>
@@ -10807,7 +10910,7 @@
       <c r="J38" s="25"/>
       <c r="K38" s="24"/>
       <c r="L38" s="25"/>
-      <c r="M38" s="104"/>
+      <c r="M38" s="115"/>
       <c r="N38" s="65" t="s">
         <v>14</v>
       </c>
@@ -10835,7 +10938,7 @@
       <c r="V38" s="1"/>
     </row>
     <row r="39" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="105"/>
+      <c r="A39" s="116"/>
       <c r="B39" s="65" t="s">
         <v>30</v>
       </c>
@@ -10863,7 +10966,7 @@
       <c r="J39" s="25"/>
       <c r="K39" s="24"/>
       <c r="L39" s="25"/>
-      <c r="M39" s="105"/>
+      <c r="M39" s="116"/>
       <c r="N39" s="65" t="s">
         <v>30</v>
       </c>
@@ -10915,35 +11018,35 @@
       <c r="V40" s="1"/>
     </row>
     <row r="41" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="109" t="s">
+      <c r="A41" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="110"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="111"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="111"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="112"/>
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
       <c r="L41" s="25"/>
-      <c r="M41" s="109" t="s">
+      <c r="M41" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="N41" s="110"/>
-      <c r="O41" s="110"/>
-      <c r="P41" s="110"/>
-      <c r="Q41" s="110"/>
-      <c r="R41" s="110"/>
-      <c r="S41" s="110"/>
-      <c r="T41" s="110"/>
-      <c r="U41" s="111"/>
+      <c r="N41" s="111"/>
+      <c r="O41" s="111"/>
+      <c r="P41" s="111"/>
+      <c r="Q41" s="111"/>
+      <c r="R41" s="111"/>
+      <c r="S41" s="111"/>
+      <c r="T41" s="111"/>
+      <c r="U41" s="112"/>
       <c r="V41" s="1"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="93" t="s">
+      <c r="A42" s="83" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="70" t="s">
@@ -10973,7 +11076,7 @@
       <c r="J42" s="25"/>
       <c r="K42" s="24"/>
       <c r="L42" s="25"/>
-      <c r="M42" s="93" t="s">
+      <c r="M42" s="83" t="s">
         <v>0</v>
       </c>
       <c r="N42" s="70" t="s">
@@ -11003,7 +11106,7 @@
       <c r="V42" s="1"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" s="94"/>
+      <c r="A43" s="84"/>
       <c r="B43" s="71" t="s">
         <v>2</v>
       </c>
@@ -11031,7 +11134,7 @@
       <c r="J43" s="25"/>
       <c r="K43" s="24"/>
       <c r="L43" s="25"/>
-      <c r="M43" s="94"/>
+      <c r="M43" s="84"/>
       <c r="N43" s="71" t="s">
         <v>2</v>
       </c>
@@ -11059,7 +11162,7 @@
       <c r="V43" s="1"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A44" s="94"/>
+      <c r="A44" s="84"/>
       <c r="B44" s="71" t="s">
         <v>3</v>
       </c>
@@ -11087,7 +11190,7 @@
       <c r="J44" s="25"/>
       <c r="K44" s="24"/>
       <c r="L44" s="25"/>
-      <c r="M44" s="94"/>
+      <c r="M44" s="84"/>
       <c r="N44" s="71" t="s">
         <v>3</v>
       </c>
@@ -11115,7 +11218,7 @@
       <c r="V44" s="1"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A45" s="94"/>
+      <c r="A45" s="84"/>
       <c r="B45" s="71" t="s">
         <v>4</v>
       </c>
@@ -11143,7 +11246,7 @@
       <c r="J45" s="25"/>
       <c r="K45" s="24"/>
       <c r="L45" s="25"/>
-      <c r="M45" s="94"/>
+      <c r="M45" s="84"/>
       <c r="N45" s="71" t="s">
         <v>4</v>
       </c>
@@ -11171,7 +11274,7 @@
       <c r="V45" s="1"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="94"/>
+      <c r="A46" s="84"/>
       <c r="B46" s="71" t="s">
         <v>5</v>
       </c>
@@ -11199,7 +11302,7 @@
       <c r="J46" s="25"/>
       <c r="K46" s="24"/>
       <c r="L46" s="25"/>
-      <c r="M46" s="94"/>
+      <c r="M46" s="84"/>
       <c r="N46" s="71" t="s">
         <v>5</v>
       </c>
@@ -11227,7 +11330,7 @@
       <c r="V46" s="1"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="94"/>
+      <c r="A47" s="84"/>
       <c r="B47" s="71" t="s">
         <v>6</v>
       </c>
@@ -11255,7 +11358,7 @@
       <c r="J47" s="25"/>
       <c r="K47" s="24"/>
       <c r="L47" s="25"/>
-      <c r="M47" s="94"/>
+      <c r="M47" s="84"/>
       <c r="N47" s="71" t="s">
         <v>6</v>
       </c>
@@ -11283,7 +11386,7 @@
       <c r="V47" s="1"/>
     </row>
     <row r="48" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="95"/>
+      <c r="A48" s="85"/>
       <c r="B48" s="66" t="s">
         <v>7</v>
       </c>
@@ -11311,7 +11414,7 @@
       <c r="J48" s="25"/>
       <c r="K48" s="24"/>
       <c r="L48" s="25"/>
-      <c r="M48" s="95"/>
+      <c r="M48" s="85"/>
       <c r="N48" s="66" t="s">
         <v>7</v>
       </c>
@@ -11372,7 +11475,7 @@
       <c r="F50" s="79"/>
       <c r="G50" s="79"/>
       <c r="H50" s="79"/>
-      <c r="I50" s="112"/>
+      <c r="I50" s="113"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
       <c r="L50" s="25"/>
@@ -11386,11 +11489,11 @@
       <c r="R50" s="79"/>
       <c r="S50" s="79"/>
       <c r="T50" s="79"/>
-      <c r="U50" s="112"/>
+      <c r="U50" s="113"/>
       <c r="V50" s="1"/>
     </row>
     <row r="51" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="93" t="s">
+      <c r="A51" s="83" t="s">
         <v>0</v>
       </c>
       <c r="B51" s="70" t="s">
@@ -11420,7 +11523,7 @@
       <c r="J51" s="25"/>
       <c r="K51" s="24"/>
       <c r="L51" s="25"/>
-      <c r="M51" s="93" t="s">
+      <c r="M51" s="83" t="s">
         <v>0</v>
       </c>
       <c r="N51" s="70" t="s">
@@ -11450,7 +11553,7 @@
       <c r="V51" s="1"/>
     </row>
     <row r="52" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="94"/>
+      <c r="A52" s="84"/>
       <c r="B52" s="71" t="s">
         <v>2</v>
       </c>
@@ -11478,7 +11581,7 @@
       <c r="J52" s="25"/>
       <c r="K52" s="24"/>
       <c r="L52" s="25"/>
-      <c r="M52" s="94"/>
+      <c r="M52" s="84"/>
       <c r="N52" s="71" t="s">
         <v>2</v>
       </c>
@@ -11506,7 +11609,7 @@
       <c r="V52" s="1"/>
     </row>
     <row r="53" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="94"/>
+      <c r="A53" s="84"/>
       <c r="B53" s="71" t="s">
         <v>3</v>
       </c>
@@ -11534,7 +11637,7 @@
       <c r="J53" s="25"/>
       <c r="K53" s="24"/>
       <c r="L53" s="25"/>
-      <c r="M53" s="94"/>
+      <c r="M53" s="84"/>
       <c r="N53" s="71" t="s">
         <v>3</v>
       </c>
@@ -11562,7 +11665,7 @@
       <c r="V53" s="1"/>
     </row>
     <row r="54" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="94"/>
+      <c r="A54" s="84"/>
       <c r="B54" s="71" t="s">
         <v>4</v>
       </c>
@@ -11590,7 +11693,7 @@
       <c r="J54" s="25"/>
       <c r="K54" s="24"/>
       <c r="L54" s="25"/>
-      <c r="M54" s="94"/>
+      <c r="M54" s="84"/>
       <c r="N54" s="71" t="s">
         <v>4</v>
       </c>
@@ -11618,7 +11721,7 @@
       <c r="V54" s="1"/>
     </row>
     <row r="55" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="94"/>
+      <c r="A55" s="84"/>
       <c r="B55" s="71" t="s">
         <v>5</v>
       </c>
@@ -11646,7 +11749,7 @@
       <c r="J55" s="25"/>
       <c r="K55" s="24"/>
       <c r="L55" s="25"/>
-      <c r="M55" s="94"/>
+      <c r="M55" s="84"/>
       <c r="N55" s="71" t="s">
         <v>5</v>
       </c>
@@ -11674,7 +11777,7 @@
       <c r="V55" s="1"/>
     </row>
     <row r="56" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="94"/>
+      <c r="A56" s="84"/>
       <c r="B56" s="71" t="s">
         <v>6</v>
       </c>
@@ -11702,7 +11805,7 @@
       <c r="J56" s="25"/>
       <c r="K56" s="24"/>
       <c r="L56" s="25"/>
-      <c r="M56" s="94"/>
+      <c r="M56" s="84"/>
       <c r="N56" s="71" t="s">
         <v>6</v>
       </c>
@@ -11730,7 +11833,7 @@
       <c r="V56" s="1"/>
     </row>
     <row r="57" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="95"/>
+      <c r="A57" s="85"/>
       <c r="B57" s="66" t="s">
         <v>7</v>
       </c>
@@ -11758,7 +11861,7 @@
       <c r="J57" s="25"/>
       <c r="K57" s="24"/>
       <c r="L57" s="25"/>
-      <c r="M57" s="95"/>
+      <c r="M57" s="85"/>
       <c r="N57" s="66" t="s">
         <v>7</v>
       </c>
@@ -11787,6 +11890,28 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="M34:M36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M21:U21"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="M22:M28"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="M51:M57"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="M41:U41"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="A50:I50"/>
+    <mergeCell ref="M50:U50"/>
+    <mergeCell ref="M42:M48"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="A12:I12"/>
@@ -11801,28 +11926,6 @@
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="M13:M19"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="M51:M57"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="M41:U41"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="A50:I50"/>
-    <mergeCell ref="M50:U50"/>
-    <mergeCell ref="M42:M48"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M21:U21"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="M22:M28"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="M34:M36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="A33:B33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:A4">
